--- a/Algo/sample.xlsx
+++ b/Algo/sample.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,468 +508,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3800</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5006170938</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ДПН 3800/74661</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>800003299</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>ЗДН 3800/1/265</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>60401018</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>38006040010385570</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
-        <v>616.3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>508807.88</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>7048209010</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3800</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5006170938</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ДПН 3800/74661</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>800003299</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ЗДН 3800/1/265</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>60401018</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>38006040010385571</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>825.58</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>7048209010</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3800</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5006170938</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ДПН 3800/74661</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>800003299</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ЗДН 3800/1/265</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>60401018</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>38006040010385572</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>908.14</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>7048209010</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3800</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5006170938</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ДПН 3800/74661</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>800003299</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>ЗДН 3800/1/1391</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>60804001</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>38006080400230110</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>326.9</v>
-      </c>
-      <c r="P5" t="n">
-        <v>269883.65</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>7048209010</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3800</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5006170938</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ДПН 3800/74661</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>800003299</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>ЗДН 3800/1/1538</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>60804001</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>38006080400345270</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>430</v>
-      </c>
-      <c r="P6" t="n">
-        <v>355001.44</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>7048209010</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3800</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5006170938</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ДПН 3800/74661</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>800003299</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>ЗДН 3800/1/1538</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>60804001</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>38006080400345271</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>7048209010</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
